--- a/Model_setup/Hydro_setup/Minimum_hydro.xlsx
+++ b/Model_setup/Hydro_setup/Minimum_hydro.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>PGE_valley</t>
   </si>
@@ -29,26 +30,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,35 +60,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -379,12 +367,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
@@ -398,5116 +392,5116 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>410.8564357352751</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>65.10561273197932</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>5699.683105625881</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>410.8564357352751</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>65.10561273197932</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>5699.683105625881</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>410.8564357352751</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>65.10561273197932</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>5699.683105625881</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>410.8564357352751</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>65.10561273197932</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>5699.683105625881</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>410.8564357352751</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>65.10561273197932</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>5699.683105625881</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>410.8564357352751</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>65.10561273197932</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>5699.683105625881</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>410.8564357352751</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>65.10561273197932</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>5699.683105625881</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>410.8564357352751</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>65.10561273197932</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>5699.683105625881</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>410.8564357352751</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>65.10561273197932</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>5699.683105625881</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>410.8564357352751</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>65.10561273197932</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>5699.683105625881</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>410.8564357352751</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>65.10561273197932</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>5699.683105625881</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>410.8564357352751</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>65.10561273197932</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>5699.683105625881</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>410.8564357352751</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>65.10561273197932</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>5699.683105625881</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>410.8564357352751</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>65.10561273197932</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>5699.683105625881</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>410.8564357352751</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>65.10561273197932</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>5699.683105625881</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>410.8564357352751</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>65.10561273197932</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>5699.683105625881</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>405.0154441010233</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>65.33005598454598</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>5684.690521882382</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>407.4310694340726</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>66.44728615270286</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>5660.175188649862</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>405.4199535648939</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>68.4590648371672</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>5611.219462432684</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>408.0920864367183</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>70.99709757537302</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>5571.069027918203</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>409.9039569763653</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>73.46380309058847</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>5508.509931257926</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>411.4493339189539</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>75.91456109187469</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>5430.447944025729</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>426.2505619357536</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>78.30252144418039</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>5361.637867979691</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>433.4637829180247</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>79.21945784512118</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>5307.495969701436</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>432.8554259872584</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>79.81230834129707</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>5260.983141414934</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="1">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>434.5839722072408</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>79.5420688679411</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>5284.883519389983</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="1">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>434.0188876716811</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>80.11739748780987</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>5302.376233062783</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="1">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>432.148662021602</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>80.09869731757315</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>5296.37299739356</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="1">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>428.2009505120354</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>80.13383501179169</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>5255.094219722372</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="1">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>422.4220001160355</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>80.6021861271972</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>5260.126430106349</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="1">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>419.5257630932687</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>80.99922928771248</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>5274.633784455144</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="1">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>414.4961764972649</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>81.4794705248564</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>5238.536574682357</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="1">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>405.6465090410876</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>81.73569494140654</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>5217.006042667604</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="1">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>388.3577834403306</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>82.41837865199373</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>5262.721790398907</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="1">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>373.788719674372</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>82.4355577691324</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>5258.090834809213</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="1">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>378.5731552526257</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>82.51813066104579</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>5237.053394825167</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="1">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>383.5557122659228</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>82.93226435082667</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>5217.120009028059</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>388.849208783337</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>83.70782900181767</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>5169.220571296558</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="1">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>412.2360674397618</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>84.34698624326931</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>5170.097054484524</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="1">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>431.9196775906044</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>85.10009923066924</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>5169.340656899072</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="1">
+      <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>438.4094822012377</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>84.32887859796739</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>5161.667666617382</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="1">
+      <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>429.1086831347885</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>83.76953291798995</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>5124.166098621023</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="1">
+      <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>429.9299405951447</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>83.70408825505689</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>5112.467336053492</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="1">
+      <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>448.3335402881156</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>83.45357026804578</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>5088.336414016245</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="1">
+      <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>462.1695886997412</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>81.15789277194757</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>5086.451750775125</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="1">
+      <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>472.463935251513</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>78.76528651702716</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>5084.41442812911</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="1">
+      <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>490.8627695466204</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>76.77575985400061</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>5087.154349936388</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="1">
+      <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>489.2893181228028</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>74.62361137482117</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>5112.409233124718</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="1">
+      <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>492.7905667802251</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>73.02052795921574</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>5125.400716120335</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="1">
+      <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>490.9322905168933</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>71.46438975845403</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>5086.687914714889</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="1">
+      <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>494.8922029828537</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>69.87221881505297</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>5106.353892265609</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="1">
+      <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>495.5272718674857</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>68.21093943326429</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>5108.141230847878</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="1">
+      <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>493.8199340926042</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>66.57963365010427</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>5085.613518236575</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="1">
+      <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>504.3852768101331</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>67.20942461222931</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>5070.682244285355</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="1">
+      <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>521.5754202647661</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>67.6292523986058</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>5061.862701587557</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="1">
+      <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>530.8383079018754</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>67.67156049991102</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>4987.530531033725</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="1">
+      <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>537.7418630069027</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>67.68843396193196</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>4917.019167729787</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="1">
+      <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>550.4633906820642</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>68.06421846485603</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>4878.885361756476</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="1">
+      <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>559.6636146838383</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>68.71620404570723</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>4886.975509253814</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="1">
+      <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>567.5339240496816</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>69.05466089059088</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>4856.620424936555</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="1">
+      <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>574.14732568299</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>69.32059034680874</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>4825.131206452193</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="1">
+      <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>573.4444886956466</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>69.95978052930877</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>4820.140936395645</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="1">
+      <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>567.5152249105452</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>71.27613978751887</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>4784.021220009096</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="1">
+      <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>572.0129321087632</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>72.04595537863885</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>4735.7597226973</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="1">
+      <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>589.5804535210619</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>73.68189689077654</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>4740.523926985781</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="1">
+      <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>597.2985086395149</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>75.18880600459661</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>4758.142249706465</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="1">
+      <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>599.6227158329956</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>76.79594368743092</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>4763.757649088957</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="1">
+      <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>600.2554365879342</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>78.52472577495739</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>4767.235962018389</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="1">
+      <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>600.5589056602033</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>80.45943174580881</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>4725.860721421213</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="1">
+      <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>597.0877039206869</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>90.38163319005723</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>4685.453747413167</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="1">
+      <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>601.7708365240868</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>101.3291928120071</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>4629.262296816455</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="1">
+      <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>622.2976579895471</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>112.361180166798</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>4608.123754945735</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="1">
+      <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>644.0813483687466</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>123.619885622461</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>4577.426433724322</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="1">
+      <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>655.7946545015741</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>135.0535526094897</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>4566.740858715249</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="1">
+      <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>670.6625882972372</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>147.1474957934213</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>4566.043280033382</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="1">
+      <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>682.8216606419448</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>157.8311417822417</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>4541.268330472029</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="1">
+      <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>662.8197343072936</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>169.8955375900146</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>4527.558741726966</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="1">
+      <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>671.0970269742251</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>181.6003345011607</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>4498.590549988113</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="1">
+      <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>681.6097567606254</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>190.5610182184519</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>4495.076984017782</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="1">
+      <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>693.2462089034176</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>201.7817143138469</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>4518.562128859504</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="1">
+      <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>697.5410356933241</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>208.9657203413603</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>4488.916547643766</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="1">
+      <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>704.1998130652345</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>217.7961839931787</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>4497.133515494616</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="1">
+      <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>707.1003109238926</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>229.2684122411696</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>4509.992906367368</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="1">
+      <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>703.1766147582995</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>230.724247667832</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>4501.548842450712</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="1">
+      <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>694.0169861913192</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>235.9978721229605</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>4491.768734785064</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="1">
+      <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>688.721244966145</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>240.4144509214665</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>4511.482809730946</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="1">
+      <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>687.8780420051845</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>242.0812788581453</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>4542.159990310844</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="1">
+      <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>686.4012912696269</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>249.976867965824</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>4565.578467283189</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="1">
+      <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>686.0245528639314</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>250.9465799142389</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>4561.703438711211</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="1">
+      <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>690.9133274383819</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>251.9340825310737</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>4566.650301455385</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="1">
+      <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>685.8062734266772</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>252.9005858205881</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>4550.340569738674</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="1">
+      <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>691.9172731969967</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>253.3941716481709</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>4514.038617543815</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="1">
+      <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>709.7176504024509</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>253.0063741817107</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>4510.299019956077</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="1">
+      <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>724.613184643547</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>252.957260211382</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>4501.415201219624</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="1">
+      <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>736.253943549101</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>251.9963638197538</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>4462.741735406852</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="1">
+      <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>739.0779218351094</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>251.9681458472089</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>4448.425017294748</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="1">
+      <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>742.8539980648886</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>252.3059332126363</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>4440.105179427277</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="1">
+      <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>739.283285028813</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>253.652560641741</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>4429.169347897524</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="1">
+      <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>732.4504682934463</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>262.0949885368379</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>4419.911326413291</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="1">
+      <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>739.8956713235689</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>262.4573855829229</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>4414.471559133019</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="1">
+      <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>736.9332953271363</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>261.0742582135551</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>4429.241748439037</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="1">
+      <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>735.223504275153</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>260.2610062780719</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>4436.412491394899</v>
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="1">
+      <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>734.6752661815353</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>260.685818990706</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>4408.164175355146</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="1">
+      <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>732.3636711631896</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>253.8701412282259</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="n">
         <v>4386.376998967907</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="1">
+      <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>722.9055853212762</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>253.2162129602926</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="n">
         <v>4397.626224871196</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="1">
+      <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>719.2145299374257</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>247.6980538416256</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>4426.853866153197</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="1">
+      <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>731.7685171164418</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>246.3685510920794</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>4481.015188181935</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="1">
+      <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>743.881314938464</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>239.4649136064562</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="n">
         <v>4516.175071501229</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="1">
+      <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>750.7882709685352</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>242.8686126676371</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>4532.52385006125</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="1">
+      <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>758.0670298872311</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>251.0328068820923</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>4529.075358079838</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="1">
+      <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>762.8391262513019</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>258.2276840926467</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="n">
         <v>4557.963566238456</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="1">
+      <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>769.6823019079545</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>267.513160397154</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>4601.110847208576</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="1">
+      <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>777.451149586685</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>273.6112928335489</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="n">
         <v>4600.941834460576</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="1">
+      <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>785.3054457813748</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>289.4919589777207</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="n">
         <v>4610.443239695591</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="1">
+      <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>796.0373822767574</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>301.6660815038761</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>4613.518587675565</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="1">
+      <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>816.4856148115612</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>315.0464828743562</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="n">
         <v>4611.775146345723</v>
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="1">
+      <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>831.99502812207</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>333.545677633624</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="n">
         <v>4612.421736351322</v>
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="1">
+      <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>838.6296578060148</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>345.4748572502</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>4609.099255696303</v>
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="1">
+      <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>843.2109634927052</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>362.0670354722157</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="n">
         <v>4629.646891925023</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="1">
+      <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>843.8787448218623</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>379.0966602313588</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="n">
         <v>4637.384590564246</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="1">
+      <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>859.3109319678675</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>393.7978684311084</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="n">
         <v>4658.969988276908</v>
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="1">
+      <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>871.0281990228742</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>405.9930129704807</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="n">
         <v>4757.767840341306</v>
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="1">
+      <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>887.4657885459039</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>416.7819437889191</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="n">
         <v>4876.322116222316</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="1">
+      <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>901.488852378239</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>435.0127846438635</v>
       </c>
-      <c r="D125">
+      <c r="D125" t="n">
         <v>4952.170586325549</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="1">
+      <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>901.8518854050825</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>452.0385251772462</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="n">
         <v>5031.606809483653</v>
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="1">
+      <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>906.6085041933961</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>461.6689301543394</v>
       </c>
-      <c r="D127">
+      <c r="D127" t="n">
         <v>5057.576420436615</v>
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="1">
+      <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>917.2260346606242</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>477.8417187272015</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="n">
         <v>5073.593016209837</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="1">
+      <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>933.740380154971</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>492.3740786402849</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="n">
         <v>5112.095733552522</v>
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="1">
+      <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>946.1561355013309</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>503.1298815265735</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="n">
         <v>5148.542845597886</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="1">
+      <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>945.1452225210668</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>510.1191149626401</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="n">
         <v>5179.263379233472</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="1">
+      <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>948.479615637965</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>520.6608357639657</v>
       </c>
-      <c r="D132">
+      <c r="D132" t="n">
         <v>5192.162770983841</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="1">
+      <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>945.2139735154813</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>526.5564222966332</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="n">
         <v>5219.97095160713</v>
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="1">
+      <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>943.3896769256488</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>530.6090670531656</v>
       </c>
-      <c r="D134">
+      <c r="D134" t="n">
         <v>5276.514657933529</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="1">
+      <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>942.9178412534615</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>540.6334498128411</v>
       </c>
-      <c r="D135">
+      <c r="D135" t="n">
         <v>5302.929709886092</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="1">
+      <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>945.4079392951033</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>546.7935755121745</v>
       </c>
-      <c r="D136">
+      <c r="D136" t="n">
         <v>5309.843441435324</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="1">
+      <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>950.0946011510808</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>556.709526522908</v>
       </c>
-      <c r="D137">
+      <c r="D137" t="n">
         <v>5334.826917805358</v>
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="1">
+      <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="n">
         <v>958.88354233196</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="n">
         <v>562.034368844308</v>
       </c>
-      <c r="D138">
+      <c r="D138" t="n">
         <v>5314.863040686863</v>
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="1">
+      <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="n">
         <v>957.5690712490335</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="n">
         <v>574.7151734667981</v>
       </c>
-      <c r="D139">
+      <c r="D139" t="n">
         <v>5318.811160123859</v>
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="1">
+      <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="n">
         <v>953.4052552720954</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="n">
         <v>584.333824537498</v>
       </c>
-      <c r="D140">
+      <c r="D140" t="n">
         <v>5317.734821586828</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="1">
+      <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="n">
         <v>950.9397925818927</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="n">
         <v>578.9757854732816</v>
       </c>
-      <c r="D141">
+      <c r="D141" t="n">
         <v>5329.575966316009</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="1">
+      <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="n">
         <v>951.5754004014283</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="n">
         <v>582.3772020424816</v>
       </c>
-      <c r="D142">
+      <c r="D142" t="n">
         <v>5353.969881908631</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="1">
+      <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="n">
         <v>955.8332023537725</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="n">
         <v>578.6184870682716</v>
       </c>
-      <c r="D143">
+      <c r="D143" t="n">
         <v>5340.330950198794</v>
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="1">
+      <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="n">
         <v>960.5715513110766</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="n">
         <v>577.7334254471783</v>
       </c>
-      <c r="D144">
+      <c r="D144" t="n">
         <v>5343.692200319353</v>
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="1">
+      <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="n">
         <v>970.5212731484612</v>
       </c>
-      <c r="C145">
+      <c r="C145" t="n">
         <v>570.0343735377974</v>
       </c>
-      <c r="D145">
+      <c r="D145" t="n">
         <v>5388.452500067863</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="1">
+      <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B146">
+      <c r="B146" t="n">
         <v>986.5018439171279</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="n">
         <v>562.5718798924263</v>
       </c>
-      <c r="D146">
+      <c r="D146" t="n">
         <v>5433.566820380826</v>
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="1">
+      <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B147">
+      <c r="B147" t="n">
         <v>993.4556118407033</v>
       </c>
-      <c r="C147">
+      <c r="C147" t="n">
         <v>560.2469609570909</v>
       </c>
-      <c r="D147">
+      <c r="D147" t="n">
         <v>5483.332065447953</v>
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="1">
+      <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="n">
         <v>999.612677266122</v>
       </c>
-      <c r="C148">
+      <c r="C148" t="n">
         <v>549.4159594561633</v>
       </c>
-      <c r="D148">
+      <c r="D148" t="n">
         <v>5479.270068682162</v>
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="1">
+      <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B149">
+      <c r="B149" t="n">
         <v>1009.527094807644</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="n">
         <v>544.0410433860699</v>
       </c>
-      <c r="D149">
+      <c r="D149" t="n">
         <v>5500.962833631968</v>
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="1">
+      <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B150">
+      <c r="B150" t="n">
         <v>1028.813060458855</v>
       </c>
-      <c r="C150">
+      <c r="C150" t="n">
         <v>540.0123488866318</v>
       </c>
-      <c r="D150">
+      <c r="D150" t="n">
         <v>5506.868585718546</v>
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="1">
+      <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B151">
+      <c r="B151" t="n">
         <v>1054.95194278747</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="n">
         <v>529.26041872212</v>
       </c>
-      <c r="D151">
+      <c r="D151" t="n">
         <v>5511.672244445343</v>
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="1">
+      <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B152">
+      <c r="B152" t="n">
         <v>1076.7506403921</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="n">
         <v>520.495601796821</v>
       </c>
-      <c r="D152">
+      <c r="D152" t="n">
         <v>5498.60937117593</v>
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="1">
+      <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B153">
+      <c r="B153" t="n">
         <v>1094.439898715835</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="n">
         <v>510.4697157866137</v>
       </c>
-      <c r="D153">
+      <c r="D153" t="n">
         <v>5432.535305862652</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="1">
+      <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B154">
+      <c r="B154" t="n">
         <v>1091.32420788033</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="n">
         <v>502.4883381354178</v>
       </c>
-      <c r="D154">
+      <c r="D154" t="n">
         <v>5358.283029245677</v>
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="1">
+      <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B155">
+      <c r="B155" t="n">
         <v>1076.649846053461</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="n">
         <v>490.2278637837792</v>
       </c>
-      <c r="D155">
+      <c r="D155" t="n">
         <v>5306.054211095679</v>
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="1">
+      <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B156">
+      <c r="B156" t="n">
         <v>1081.124807448975</v>
       </c>
-      <c r="C156">
+      <c r="C156" t="n">
         <v>477.4878516066344</v>
       </c>
-      <c r="D156">
+      <c r="D156" t="n">
         <v>5248.817854052254</v>
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="1">
+      <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B157">
+      <c r="B157" t="n">
         <v>1077.462215120312</v>
       </c>
-      <c r="C157">
+      <c r="C157" t="n">
         <v>473.0607987156642</v>
       </c>
-      <c r="D157">
+      <c r="D157" t="n">
         <v>5248.167563846322</v>
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="1">
+      <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B158">
+      <c r="B158" t="n">
         <v>1078.552617874908</v>
       </c>
-      <c r="C158">
+      <c r="C158" t="n">
         <v>460.4289743448348</v>
       </c>
-      <c r="D158">
+      <c r="D158" t="n">
         <v>5241.133234721172</v>
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="1">
+      <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B159">
+      <c r="B159" t="n">
         <v>1085.357050807446</v>
       </c>
-      <c r="C159">
+      <c r="C159" t="n">
         <v>446.5632537360889</v>
       </c>
-      <c r="D159">
+      <c r="D159" t="n">
         <v>5225.896574374573</v>
       </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="1">
+      <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="B160">
+      <c r="B160" t="n">
         <v>1096.27893180686</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="n">
         <v>429.8742006407167</v>
       </c>
-      <c r="D160">
+      <c r="D160" t="n">
         <v>5253.14149634651</v>
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="1">
+      <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B161">
+      <c r="B161" t="n">
         <v>1105.748361358117</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="n">
         <v>416.0429739624888</v>
       </c>
-      <c r="D161">
+      <c r="D161" t="n">
         <v>5241.131900606806</v>
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="1">
+      <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B162">
+      <c r="B162" t="n">
         <v>1108.642466099783</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="n">
         <v>399.0186570298325</v>
       </c>
-      <c r="D162">
+      <c r="D162" t="n">
         <v>5230.204428501916</v>
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="1">
+      <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B163">
+      <c r="B163" t="n">
         <v>1111.656048606069</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="n">
         <v>385.7294512133885</v>
       </c>
-      <c r="D163">
+      <c r="D163" t="n">
         <v>5208.686264231453</v>
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="1">
+      <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B164">
+      <c r="B164" t="n">
         <v>1133.307516791342</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="n">
         <v>372.9463821615654</v>
       </c>
-      <c r="D164">
+      <c r="D164" t="n">
         <v>5189.814284382375</v>
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="1">
+      <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B165">
+      <c r="B165" t="n">
         <v>1149.570556477826</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="n">
         <v>360.1456821133896</v>
       </c>
-      <c r="D165">
+      <c r="D165" t="n">
         <v>5215.043702868948</v>
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="1">
+      <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B166">
+      <c r="B166" t="n">
         <v>1165.422554494915</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="n">
         <v>344.4378507843111</v>
       </c>
-      <c r="D166">
+      <c r="D166" t="n">
         <v>5188.705006198948</v>
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="1">
+      <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="B167">
+      <c r="B167" t="n">
         <v>1173.180213042397</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="n">
         <v>331.069872456232</v>
       </c>
-      <c r="D167">
+      <c r="D167" t="n">
         <v>5142.893828365779</v>
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="1">
+      <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B168">
+      <c r="B168" t="n">
         <v>1180.697149228115</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="n">
         <v>317.3177108115232</v>
       </c>
-      <c r="D168">
+      <c r="D168" t="n">
         <v>5125.514168765289</v>
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="1">
+      <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B169">
+      <c r="B169" t="n">
         <v>1180.335523529282</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="n">
         <v>301.2517525005785</v>
       </c>
-      <c r="D169">
+      <c r="D169" t="n">
         <v>5071.502539664147</v>
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="1">
+      <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B170">
+      <c r="B170" t="n">
         <v>1192.791257553729</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="n">
         <v>281.5403106284728</v>
       </c>
-      <c r="D170">
+      <c r="D170" t="n">
         <v>5033.545787404509</v>
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="1">
+      <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="B171">
+      <c r="B171" t="n">
         <v>1201.687790958631</v>
       </c>
-      <c r="C171">
+      <c r="C171" t="n">
         <v>269.8880601272336</v>
       </c>
-      <c r="D171">
+      <c r="D171" t="n">
         <v>5013.384408769582</v>
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="1">
+      <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B172">
+      <c r="B172" t="n">
         <v>1206.580498400746</v>
       </c>
-      <c r="C172">
+      <c r="C172" t="n">
         <v>254.5569091867982</v>
       </c>
-      <c r="D172">
+      <c r="D172" t="n">
         <v>4940.596148451948</v>
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="1">
+      <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="B173">
+      <c r="B173" t="n">
         <v>1211.017122636077</v>
       </c>
-      <c r="C173">
+      <c r="C173" t="n">
         <v>243.41051150927</v>
       </c>
-      <c r="D173">
+      <c r="D173" t="n">
         <v>4859.67929869724</v>
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="1">
+      <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B174">
+      <c r="B174" t="n">
         <v>1213.92808797597</v>
       </c>
-      <c r="C174">
+      <c r="C174" t="n">
         <v>229.4050276981573</v>
       </c>
-      <c r="D174">
+      <c r="D174" t="n">
         <v>4800.756392404191</v>
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="1">
+      <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="B175">
+      <c r="B175" t="n">
         <v>1208.475912055825</v>
       </c>
-      <c r="C175">
+      <c r="C175" t="n">
         <v>222.1022415648699</v>
       </c>
-      <c r="D175">
+      <c r="D175" t="n">
         <v>4710.093630480758</v>
       </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="1">
+      <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B176">
+      <c r="B176" t="n">
         <v>1200.790272911486</v>
       </c>
-      <c r="C176">
+      <c r="C176" t="n">
         <v>215.1726263387203</v>
       </c>
-      <c r="D176">
+      <c r="D176" t="n">
         <v>4614.088650264533</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="1">
+      <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B177">
+      <c r="B177" t="n">
         <v>1198.702667979463</v>
       </c>
-      <c r="C177">
+      <c r="C177" t="n">
         <v>205.6017978834583</v>
       </c>
-      <c r="D177">
+      <c r="D177" t="n">
         <v>4505.056302127769</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="1">
+      <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B178">
+      <c r="B178" t="n">
         <v>1204.465672834812</v>
       </c>
-      <c r="C178">
+      <c r="C178" t="n">
         <v>200.3770263934006</v>
       </c>
-      <c r="D178">
+      <c r="D178" t="n">
         <v>4452.88539302278</v>
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="1">
+      <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="B179">
+      <c r="B179" t="n">
         <v>1203.531965975264</v>
       </c>
-      <c r="C179">
+      <c r="C179" t="n">
         <v>189.83286728141</v>
       </c>
-      <c r="D179">
+      <c r="D179" t="n">
         <v>4388.688725414823</v>
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="1">
+      <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="B180">
+      <c r="B180" t="n">
         <v>1194.370420817317</v>
       </c>
-      <c r="C180">
+      <c r="C180" t="n">
         <v>177.6479951493472</v>
       </c>
-      <c r="D180">
+      <c r="D180" t="n">
         <v>4319.893827580791</v>
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="1">
+      <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B181">
+      <c r="B181" t="n">
         <v>1165.315221308469</v>
       </c>
-      <c r="C181">
+      <c r="C181" t="n">
         <v>172.9396280966838</v>
       </c>
-      <c r="D181">
+      <c r="D181" t="n">
         <v>4280.970000399085</v>
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="1">
+      <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B182">
+      <c r="B182" t="n">
         <v>1144.633713015048</v>
       </c>
-      <c r="C182">
+      <c r="C182" t="n">
         <v>167.6825708168767</v>
       </c>
-      <c r="D182">
+      <c r="D182" t="n">
         <v>4254.37603368863</v>
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="1">
+      <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B183">
+      <c r="B183" t="n">
         <v>1129.111464816502</v>
       </c>
-      <c r="C183">
+      <c r="C183" t="n">
         <v>166.270393123607</v>
       </c>
-      <c r="D183">
+      <c r="D183" t="n">
         <v>4202.918876076777</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="1">
+      <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="B184">
+      <c r="B184" t="n">
         <v>1131.051866968891</v>
       </c>
-      <c r="C184">
+      <c r="C184" t="n">
         <v>164.4685266592743</v>
       </c>
-      <c r="D184">
+      <c r="D184" t="n">
         <v>4139.013862550481</v>
       </c>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="1">
+      <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="B185">
+      <c r="B185" t="n">
         <v>1149.520443637833</v>
       </c>
-      <c r="C185">
+      <c r="C185" t="n">
         <v>158.8271206801526</v>
       </c>
-      <c r="D185">
+      <c r="D185" t="n">
         <v>4111.905135077242</v>
       </c>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="1">
+      <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="B186">
+      <c r="B186" t="n">
         <v>1158.916089180789</v>
       </c>
-      <c r="C186">
+      <c r="C186" t="n">
         <v>154.1834352819724</v>
       </c>
-      <c r="D186">
+      <c r="D186" t="n">
         <v>4085.767991163802</v>
       </c>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="1">
+      <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B187">
+      <c r="B187" t="n">
         <v>1175.209345212542</v>
       </c>
-      <c r="C187">
+      <c r="C187" t="n">
         <v>148.5563521432617</v>
       </c>
-      <c r="D187">
+      <c r="D187" t="n">
         <v>4035.251996246122</v>
       </c>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="1">
+      <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="B188">
+      <c r="B188" t="n">
         <v>1191.761503680621</v>
       </c>
-      <c r="C188">
+      <c r="C188" t="n">
         <v>144.2903677615621</v>
       </c>
-      <c r="D188">
+      <c r="D188" t="n">
         <v>3986.189301153391</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="1">
+      <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="B189">
+      <c r="B189" t="n">
         <v>1194.756095476342</v>
       </c>
-      <c r="C189">
+      <c r="C189" t="n">
         <v>141.1605610965647</v>
       </c>
-      <c r="D189">
+      <c r="D189" t="n">
         <v>3938.06210385855</v>
       </c>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="1">
+      <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="B190">
+      <c r="B190" t="n">
         <v>1191.707832419769</v>
       </c>
-      <c r="C190">
+      <c r="C190" t="n">
         <v>137.5276945880381</v>
       </c>
-      <c r="D190">
+      <c r="D190" t="n">
         <v>3858.071256767325</v>
       </c>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="1">
+      <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B191">
+      <c r="B191" t="n">
         <v>1196.934778590379</v>
       </c>
-      <c r="C191">
+      <c r="C191" t="n">
         <v>135.6209290528115</v>
       </c>
-      <c r="D191">
+      <c r="D191" t="n">
         <v>3812.672980518349</v>
       </c>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="1">
+      <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="B192">
+      <c r="B192" t="n">
         <v>1213.128800077215</v>
       </c>
-      <c r="C192">
+      <c r="C192" t="n">
         <v>133.7857688003745</v>
       </c>
-      <c r="D192">
+      <c r="D192" t="n">
         <v>3788.535633446417</v>
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="1">
+      <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B193">
+      <c r="B193" t="n">
         <v>1233.123656257111</v>
       </c>
-      <c r="C193">
+      <c r="C193" t="n">
         <v>132.5693165176632</v>
       </c>
-      <c r="D193">
+      <c r="D193" t="n">
         <v>3758.508747028382</v>
       </c>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="1">
+      <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B194">
+      <c r="B194" t="n">
         <v>1229.242782515794</v>
       </c>
-      <c r="C194">
+      <c r="C194" t="n">
         <v>130.5725352391334</v>
       </c>
-      <c r="D194">
+      <c r="D194" t="n">
         <v>3712.780001865979</v>
       </c>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="1">
+      <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="B195">
+      <c r="B195" t="n">
         <v>1228.162765737762</v>
       </c>
-      <c r="C195">
+      <c r="C195" t="n">
         <v>128.9542549376118</v>
       </c>
-      <c r="D195">
+      <c r="D195" t="n">
         <v>3646.706231604446</v>
       </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="1">
+      <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="B196">
+      <c r="B196" t="n">
         <v>1226.369662520818</v>
       </c>
-      <c r="C196">
+      <c r="C196" t="n">
         <v>127.8436055744023</v>
       </c>
-      <c r="D196">
+      <c r="D196" t="n">
         <v>3629.694355647812</v>
       </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="1">
+      <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="B197">
+      <c r="B197" t="n">
         <v>1221.834246942334</v>
       </c>
-      <c r="C197">
+      <c r="C197" t="n">
         <v>126.4028076470602</v>
       </c>
-      <c r="D197">
+      <c r="D197" t="n">
         <v>3578.930517468265</v>
       </c>
     </row>
     <row r="198" spans="1:4">
-      <c r="A198" s="1">
+      <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B198">
+      <c r="B198" t="n">
         <v>1225.82010334071</v>
       </c>
-      <c r="C198">
+      <c r="C198" t="n">
         <v>125.2332791303443</v>
       </c>
-      <c r="D198">
+      <c r="D198" t="n">
         <v>3531.801475374769</v>
       </c>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="1">
+      <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="B199">
+      <c r="B199" t="n">
         <v>1239.431308401286</v>
       </c>
-      <c r="C199">
+      <c r="C199" t="n">
         <v>125.0450567919017</v>
       </c>
-      <c r="D199">
+      <c r="D199" t="n">
         <v>3519.192661221918</v>
       </c>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="1">
+      <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="B200">
+      <c r="B200" t="n">
         <v>1234.756939453588</v>
       </c>
-      <c r="C200">
+      <c r="C200" t="n">
         <v>124.7678790927371</v>
       </c>
-      <c r="D200">
+      <c r="D200" t="n">
         <v>3512.109486111233</v>
       </c>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="1">
+      <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="B201">
+      <c r="B201" t="n">
         <v>1225.805816169234</v>
       </c>
-      <c r="C201">
+      <c r="C201" t="n">
         <v>123.6621374340861</v>
       </c>
-      <c r="D201">
+      <c r="D201" t="n">
         <v>3508.505459180348</v>
       </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="1">
+      <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B202">
+      <c r="B202" t="n">
         <v>1226.702259339688</v>
       </c>
-      <c r="C202">
+      <c r="C202" t="n">
         <v>122.9040535154793</v>
       </c>
-      <c r="D202">
+      <c r="D202" t="n">
         <v>3526.661359718043</v>
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="1">
+      <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="B203">
+      <c r="B203" t="n">
         <v>1219.03663834966</v>
       </c>
-      <c r="C203">
+      <c r="C203" t="n">
         <v>120.4973797710598</v>
       </c>
-      <c r="D203">
+      <c r="D203" t="n">
         <v>3561.712354356323</v>
       </c>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="1">
+      <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="B204">
+      <c r="B204" t="n">
         <v>1202.420483126458</v>
       </c>
-      <c r="C204">
+      <c r="C204" t="n">
         <v>117.7906974123184</v>
       </c>
-      <c r="D204">
+      <c r="D204" t="n">
         <v>3576.122748622294</v>
       </c>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="1">
+      <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="B205">
+      <c r="B205" t="n">
         <v>1192.423934765031</v>
       </c>
-      <c r="C205">
+      <c r="C205" t="n">
         <v>114.9713387071829</v>
       </c>
-      <c r="D205">
+      <c r="D205" t="n">
         <v>3590.475784459438</v>
       </c>
     </row>
     <row r="206" spans="1:4">
-      <c r="A206" s="1">
+      <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="B206">
+      <c r="B206" t="n">
         <v>1193.544626995935</v>
       </c>
-      <c r="C206">
+      <c r="C206" t="n">
         <v>111.846515886057</v>
       </c>
-      <c r="D206">
+      <c r="D206" t="n">
         <v>3619.354640300698</v>
       </c>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="1">
+      <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="B207">
+      <c r="B207" t="n">
         <v>1187.511293186885</v>
       </c>
-      <c r="C207">
+      <c r="C207" t="n">
         <v>106.3389048952748</v>
       </c>
-      <c r="D207">
+      <c r="D207" t="n">
         <v>3681.703043634042</v>
       </c>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" s="1">
+      <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="B208">
+      <c r="B208" t="n">
         <v>1180.064877809486</v>
       </c>
-      <c r="C208">
+      <c r="C208" t="n">
         <v>102.7213228824345</v>
       </c>
-      <c r="D208">
+      <c r="D208" t="n">
         <v>3720.003414844325</v>
       </c>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" s="1">
+      <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="B209">
+      <c r="B209" t="n">
         <v>1170.523736341228</v>
       </c>
-      <c r="C209">
+      <c r="C209" t="n">
         <v>99.61638107804173</v>
       </c>
-      <c r="D209">
+      <c r="D209" t="n">
         <v>3757.980839269157</v>
       </c>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="1">
+      <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="B210">
+      <c r="B210" t="n">
         <v>1160.384402430529</v>
       </c>
-      <c r="C210">
+      <c r="C210" t="n">
         <v>99.43855672523318</v>
       </c>
-      <c r="D210">
+      <c r="D210" t="n">
         <v>3787.813407029903</v>
       </c>
     </row>
     <row r="211" spans="1:4">
-      <c r="A211" s="1">
+      <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="B211">
+      <c r="B211" t="n">
         <v>1163.277492495145</v>
       </c>
-      <c r="C211">
+      <c r="C211" t="n">
         <v>97.44321132859105</v>
       </c>
-      <c r="D211">
+      <c r="D211" t="n">
         <v>3783.742952850694</v>
       </c>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="1">
+      <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B212">
+      <c r="B212" t="n">
         <v>1157.249948460292</v>
       </c>
-      <c r="C212">
+      <c r="C212" t="n">
         <v>96.25724782932851</v>
       </c>
-      <c r="D212">
+      <c r="D212" t="n">
         <v>3786.439006868398</v>
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="1">
+      <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B213">
+      <c r="B213" t="n">
         <v>1150.995784021159</v>
       </c>
-      <c r="C213">
+      <c r="C213" t="n">
         <v>96.49315211896054</v>
       </c>
-      <c r="D213">
+      <c r="D213" t="n">
         <v>3812.016560068264</v>
       </c>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="1">
+      <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="B214">
+      <c r="B214" t="n">
         <v>1134.430885198603</v>
       </c>
-      <c r="C214">
+      <c r="C214" t="n">
         <v>97.72660474699332</v>
       </c>
-      <c r="D214">
+      <c r="D214" t="n">
         <v>3824.304741244988</v>
       </c>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="1">
+      <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="B215">
+      <c r="B215" t="n">
         <v>1119.947733380104</v>
       </c>
-      <c r="C215">
+      <c r="C215" t="n">
         <v>98.89870993244368</v>
       </c>
-      <c r="D215">
+      <c r="D215" t="n">
         <v>3825.384767932786</v>
       </c>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="1">
+      <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="B216">
+      <c r="B216" t="n">
         <v>1110.357642096717</v>
       </c>
-      <c r="C216">
+      <c r="C216" t="n">
         <v>105.3137148336217</v>
       </c>
-      <c r="D216">
+      <c r="D216" t="n">
         <v>3827.675059549228</v>
       </c>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="1">
+      <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="B217">
+      <c r="B217" t="n">
         <v>1098.184226886661</v>
       </c>
-      <c r="C217">
+      <c r="C217" t="n">
         <v>105.3220564011356</v>
       </c>
-      <c r="D217">
+      <c r="D217" t="n">
         <v>3816.040226539324</v>
       </c>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="1">
+      <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="B218">
+      <c r="B218" t="n">
         <v>1075.244154757541</v>
       </c>
-      <c r="C218">
+      <c r="C218" t="n">
         <v>104.5686186454082</v>
       </c>
-      <c r="D218">
+      <c r="D218" t="n">
         <v>3801.734091015719</v>
       </c>
     </row>
     <row r="219" spans="1:4">
-      <c r="A219" s="1">
+      <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="B219">
+      <c r="B219" t="n">
         <v>1059.490641931796</v>
       </c>
-      <c r="C219">
+      <c r="C219" t="n">
         <v>105.5404482176099</v>
       </c>
-      <c r="D219">
+      <c r="D219" t="n">
         <v>3797.313508335379</v>
       </c>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" s="1">
+      <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B220">
+      <c r="B220" t="n">
         <v>1052.596148764164</v>
       </c>
-      <c r="C220">
+      <c r="C220" t="n">
         <v>106.148619557473</v>
       </c>
-      <c r="D220">
+      <c r="D220" t="n">
         <v>3796.92891406219</v>
       </c>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="1">
+      <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="B221">
+      <c r="B221" t="n">
         <v>1040.129898894718</v>
       </c>
-      <c r="C221">
+      <c r="C221" t="n">
         <v>106.2046258805567</v>
       </c>
-      <c r="D221">
+      <c r="D221" t="n">
         <v>3819.632740373906</v>
       </c>
     </row>
     <row r="222" spans="1:4">
-      <c r="A222" s="1">
+      <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="B222">
+      <c r="B222" t="n">
         <v>1027.708020448051</v>
       </c>
-      <c r="C222">
+      <c r="C222" t="n">
         <v>106.1042384843149</v>
       </c>
-      <c r="D222">
+      <c r="D222" t="n">
         <v>3814.547813859933</v>
       </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="1">
+      <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="B223">
+      <c r="B223" t="n">
         <v>1009.409080648218</v>
       </c>
-      <c r="C223">
+      <c r="C223" t="n">
         <v>106.5807863622623</v>
       </c>
-      <c r="D223">
+      <c r="D223" t="n">
         <v>3816.12099829802</v>
       </c>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="1">
+      <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B224">
+      <c r="B224" t="n">
         <v>992.3917709343948</v>
       </c>
-      <c r="C224">
+      <c r="C224" t="n">
         <v>107.1000749479111</v>
       </c>
-      <c r="D224">
+      <c r="D224" t="n">
         <v>3819.937027393223</v>
       </c>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="1">
+      <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B225">
+      <c r="B225" t="n">
         <v>973.7866013349287</v>
       </c>
-      <c r="C225">
+      <c r="C225" t="n">
         <v>108.1445775174127</v>
       </c>
-      <c r="D225">
+      <c r="D225" t="n">
         <v>3826.212785402204</v>
       </c>
     </row>
     <row r="226" spans="1:4">
-      <c r="A226" s="1">
+      <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B226">
+      <c r="B226" t="n">
         <v>950.471435007748</v>
       </c>
-      <c r="C226">
+      <c r="C226" t="n">
         <v>108.6376972780744</v>
       </c>
-      <c r="D226">
+      <c r="D226" t="n">
         <v>3834.718121522526</v>
       </c>
     </row>
     <row r="227" spans="1:4">
-      <c r="A227" s="1">
+      <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="B227">
+      <c r="B227" t="n">
         <v>944.1148972023643</v>
       </c>
-      <c r="C227">
+      <c r="C227" t="n">
         <v>110.1493355776054</v>
       </c>
-      <c r="D227">
+      <c r="D227" t="n">
         <v>3860.726543954803</v>
       </c>
     </row>
     <row r="228" spans="1:4">
-      <c r="A228" s="1">
+      <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B228">
+      <c r="B228" t="n">
         <v>923.4129692947303</v>
       </c>
-      <c r="C228">
+      <c r="C228" t="n">
         <v>112.8941210218227</v>
       </c>
-      <c r="D228">
+      <c r="D228" t="n">
         <v>3870.873455159857</v>
       </c>
     </row>
     <row r="229" spans="1:4">
-      <c r="A229" s="1">
+      <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="B229">
+      <c r="B229" t="n">
         <v>901.1628746505063</v>
       </c>
-      <c r="C229">
+      <c r="C229" t="n">
         <v>113.7289384071186</v>
       </c>
-      <c r="D229">
+      <c r="D229" t="n">
         <v>3863.327723494251</v>
       </c>
     </row>
     <row r="230" spans="1:4">
-      <c r="A230" s="1">
+      <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B230">
+      <c r="B230" t="n">
         <v>892.1436704064332</v>
       </c>
-      <c r="C230">
+      <c r="C230" t="n">
         <v>113.7874189261021</v>
       </c>
-      <c r="D230">
+      <c r="D230" t="n">
         <v>3859.919265711785</v>
       </c>
     </row>
     <row r="231" spans="1:4">
-      <c r="A231" s="1">
+      <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B231">
+      <c r="B231" t="n">
         <v>879.7806976257565</v>
       </c>
-      <c r="C231">
+      <c r="C231" t="n">
         <v>115.1073466644979</v>
       </c>
-      <c r="D231">
+      <c r="D231" t="n">
         <v>3834.078865294249</v>
       </c>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="1">
+      <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="B232">
+      <c r="B232" t="n">
         <v>851.5143176838708</v>
       </c>
-      <c r="C232">
+      <c r="C232" t="n">
         <v>114.059314368917</v>
       </c>
-      <c r="D232">
+      <c r="D232" t="n">
         <v>3806.67297202456</v>
       </c>
     </row>
     <row r="233" spans="1:4">
-      <c r="A233" s="1">
+      <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="B233">
+      <c r="B233" t="n">
         <v>845.3897705685763</v>
       </c>
-      <c r="C233">
+      <c r="C233" t="n">
         <v>115.5765786354757</v>
       </c>
-      <c r="D233">
+      <c r="D233" t="n">
         <v>3784.365140173305</v>
       </c>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="1">
+      <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="B234">
+      <c r="B234" t="n">
         <v>843.2235974139736</v>
       </c>
-      <c r="C234">
+      <c r="C234" t="n">
         <v>118.5570916881595</v>
       </c>
-      <c r="D234">
+      <c r="D234" t="n">
         <v>3776.853596340472</v>
       </c>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="1">
+      <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B235">
+      <c r="B235" t="n">
         <v>839.0970761016977</v>
       </c>
-      <c r="C235">
+      <c r="C235" t="n">
         <v>119.9040684250569</v>
       </c>
-      <c r="D235">
+      <c r="D235" t="n">
         <v>3769.166022059842</v>
       </c>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="1">
+      <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="B236">
+      <c r="B236" t="n">
         <v>823.8019991826919</v>
       </c>
-      <c r="C236">
+      <c r="C236" t="n">
         <v>121.6479436236815</v>
       </c>
-      <c r="D236">
+      <c r="D236" t="n">
         <v>3746.496107285016</v>
       </c>
     </row>
     <row r="237" spans="1:4">
-      <c r="A237" s="1">
+      <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="B237">
+      <c r="B237" t="n">
         <v>812.8514149997121</v>
       </c>
-      <c r="C237">
+      <c r="C237" t="n">
         <v>125.3252093937648</v>
       </c>
-      <c r="D237">
+      <c r="D237" t="n">
         <v>3686.127969461405</v>
       </c>
     </row>
     <row r="238" spans="1:4">
-      <c r="A238" s="1">
+      <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="B238">
+      <c r="B238" t="n">
         <v>801.1076996529949</v>
       </c>
-      <c r="C238">
+      <c r="C238" t="n">
         <v>127.0084283925168</v>
       </c>
-      <c r="D238">
+      <c r="D238" t="n">
         <v>3650.253517257392</v>
       </c>
     </row>
     <row r="239" spans="1:4">
-      <c r="A239" s="1">
+      <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B239">
+      <c r="B239" t="n">
         <v>800.738927110991</v>
       </c>
-      <c r="C239">
+      <c r="C239" t="n">
         <v>126.7917242608503</v>
       </c>
-      <c r="D239">
+      <c r="D239" t="n">
         <v>3607.72980767218</v>
       </c>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" s="1">
+      <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="B240">
+      <c r="B240" t="n">
         <v>796.7968405631359</v>
       </c>
-      <c r="C240">
+      <c r="C240" t="n">
         <v>129.567029168155</v>
       </c>
-      <c r="D240">
+      <c r="D240" t="n">
         <v>3576.516501562569</v>
       </c>
     </row>
     <row r="241" spans="1:4">
-      <c r="A241" s="1">
+      <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="B241">
+      <c r="B241" t="n">
         <v>794.6237288421233</v>
       </c>
-      <c r="C241">
+      <c r="C241" t="n">
         <v>131.5392229842832</v>
       </c>
-      <c r="D241">
+      <c r="D241" t="n">
         <v>3577.455511691072</v>
       </c>
     </row>
     <row r="242" spans="1:4">
-      <c r="A242" s="1">
+      <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="B242">
+      <c r="B242" t="n">
         <v>789.5448088218767</v>
       </c>
-      <c r="C242">
+      <c r="C242" t="n">
         <v>132.626718079405</v>
       </c>
-      <c r="D242">
+      <c r="D242" t="n">
         <v>3563.912219348571</v>
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="1">
+      <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="B243">
+      <c r="B243" t="n">
         <v>788.9348700079936</v>
       </c>
-      <c r="C243">
+      <c r="C243" t="n">
         <v>132.5841444111805</v>
       </c>
-      <c r="D243">
+      <c r="D243" t="n">
         <v>3553.769049947669</v>
       </c>
     </row>
     <row r="244" spans="1:4">
-      <c r="A244" s="1">
+      <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="B244">
+      <c r="B244" t="n">
         <v>783.9574667786302</v>
       </c>
-      <c r="C244">
+      <c r="C244" t="n">
         <v>131.4663295899597</v>
       </c>
-      <c r="D244">
+      <c r="D244" t="n">
         <v>3529.844330095192</v>
       </c>
     </row>
     <row r="245" spans="1:4">
-      <c r="A245" s="1">
+      <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="B245">
+      <c r="B245" t="n">
         <v>766.3496417541793</v>
       </c>
-      <c r="C245">
+      <c r="C245" t="n">
         <v>131.663184702022</v>
       </c>
-      <c r="D245">
+      <c r="D245" t="n">
         <v>3520.604597785607</v>
       </c>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="1">
+      <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="B246">
+      <c r="B246" t="n">
         <v>747.6799041909675</v>
       </c>
-      <c r="C246">
+      <c r="C246" t="n">
         <v>124.5554261371444</v>
       </c>
-      <c r="D246">
+      <c r="D246" t="n">
         <v>3503.315687402566</v>
       </c>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="1">
+      <c r="A247" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="B247">
+      <c r="B247" t="n">
         <v>737.9954252413414</v>
       </c>
-      <c r="C247">
+      <c r="C247" t="n">
         <v>125.2800623641513</v>
       </c>
-      <c r="D247">
+      <c r="D247" t="n">
         <v>3482.411875454421</v>
       </c>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="1">
+      <c r="A248" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="B248">
+      <c r="B248" t="n">
         <v>734.3265795923376</v>
       </c>
-      <c r="C248">
+      <c r="C248" t="n">
         <v>127.9071154007903</v>
       </c>
-      <c r="D248">
+      <c r="D248" t="n">
         <v>3487.211756174739</v>
       </c>
     </row>
     <row r="249" spans="1:4">
-      <c r="A249" s="1">
+      <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="B249">
+      <c r="B249" t="n">
         <v>729.4373525347492</v>
       </c>
-      <c r="C249">
+      <c r="C249" t="n">
         <v>127.8648812973353</v>
       </c>
-      <c r="D249">
+      <c r="D249" t="n">
         <v>3485.438996007898</v>
       </c>
     </row>
     <row r="250" spans="1:4">
-      <c r="A250" s="1">
+      <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="B250">
+      <c r="B250" t="n">
         <v>722.682016895337</v>
       </c>
-      <c r="C250">
+      <c r="C250" t="n">
         <v>128.9998103542509</v>
       </c>
-      <c r="D250">
+      <c r="D250" t="n">
         <v>3496.859776515772</v>
       </c>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="1">
+      <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="B251">
+      <c r="B251" t="n">
         <v>705.3790153188413</v>
       </c>
-      <c r="C251">
+      <c r="C251" t="n">
         <v>129.8122707908259</v>
       </c>
-      <c r="D251">
+      <c r="D251" t="n">
         <v>3496.17939269187</v>
       </c>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="1">
+      <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="B252">
+      <c r="B252" t="n">
         <v>682.9987997109414</v>
       </c>
-      <c r="C252">
+      <c r="C252" t="n">
         <v>131.9621660821951</v>
       </c>
-      <c r="D252">
+      <c r="D252" t="n">
         <v>3505.183708384733</v>
       </c>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="1">
+      <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="B253">
+      <c r="B253" t="n">
         <v>663.5122230076413</v>
       </c>
-      <c r="C253">
+      <c r="C253" t="n">
         <v>133.4118237498941</v>
       </c>
-      <c r="D253">
+      <c r="D253" t="n">
         <v>3494.826745771895</v>
       </c>
     </row>
     <row r="254" spans="1:4">
-      <c r="A254" s="1">
+      <c r="A254" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="B254">
+      <c r="B254" t="n">
         <v>648.7620377440642</v>
       </c>
-      <c r="C254">
+      <c r="C254" t="n">
         <v>134.8665686053384</v>
       </c>
-      <c r="D254">
+      <c r="D254" t="n">
         <v>3476.433083559406</v>
       </c>
     </row>
     <row r="255" spans="1:4">
-      <c r="A255" s="1">
+      <c r="A255" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="B255">
+      <c r="B255" t="n">
         <v>634.6693089000405</v>
       </c>
-      <c r="C255">
+      <c r="C255" t="n">
         <v>136.7635228376245</v>
       </c>
-      <c r="D255">
+      <c r="D255" t="n">
         <v>3463.215989090339</v>
       </c>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="1">
+      <c r="A256" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="B256">
+      <c r="B256" t="n">
         <v>638.2327511069197</v>
       </c>
-      <c r="C256">
+      <c r="C256" t="n">
         <v>137.5098795938314</v>
       </c>
-      <c r="D256">
+      <c r="D256" t="n">
         <v>3441.886485604273</v>
       </c>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="1">
+      <c r="A257" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="B257">
+      <c r="B257" t="n">
         <v>622.9238365905452</v>
       </c>
-      <c r="C257">
+      <c r="C257" t="n">
         <v>139.3814081191395</v>
       </c>
-      <c r="D257">
+      <c r="D257" t="n">
         <v>3428.139577348427</v>
       </c>
     </row>
     <row r="258" spans="1:4">
-      <c r="A258" s="1">
+      <c r="A258" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="B258">
+      <c r="B258" t="n">
         <v>617.1295561910516</v>
       </c>
-      <c r="C258">
+      <c r="C258" t="n">
         <v>137.3817181602051</v>
       </c>
-      <c r="D258">
+      <c r="D258" t="n">
         <v>3418.663878905232</v>
       </c>
     </row>
     <row r="259" spans="1:4">
-      <c r="A259" s="1">
+      <c r="A259" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="B259">
+      <c r="B259" t="n">
         <v>605.7878779163742</v>
       </c>
-      <c r="C259">
+      <c r="C259" t="n">
         <v>136.1647693945888</v>
       </c>
-      <c r="D259">
+      <c r="D259" t="n">
         <v>3432.270754966181</v>
       </c>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="1">
+      <c r="A260" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="B260">
+      <c r="B260" t="n">
         <v>589.7867347718213</v>
       </c>
-      <c r="C260">
+      <c r="C260" t="n">
         <v>134.7730697743539</v>
       </c>
-      <c r="D260">
+      <c r="D260" t="n">
         <v>3417.943348921265</v>
       </c>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="1">
+      <c r="A261" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="B261">
+      <c r="B261" t="n">
         <v>581.0934669941239</v>
       </c>
-      <c r="C261">
+      <c r="C261" t="n">
         <v>134.935198425676</v>
       </c>
-      <c r="D261">
+      <c r="D261" t="n">
         <v>3406.924642159582</v>
       </c>
     </row>
     <row r="262" spans="1:4">
-      <c r="A262" s="1">
+      <c r="A262" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="B262">
+      <c r="B262" t="n">
         <v>584.767661149943</v>
       </c>
-      <c r="C262">
+      <c r="C262" t="n">
         <v>136.4922327552769</v>
       </c>
-      <c r="D262">
+      <c r="D262" t="n">
         <v>3406.868541017934</v>
       </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="1">
+      <c r="A263" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="B263">
+      <c r="B263" t="n">
         <v>570.8263594563957</v>
       </c>
-      <c r="C263">
+      <c r="C263" t="n">
         <v>136.1739284547615</v>
       </c>
-      <c r="D263">
+      <c r="D263" t="n">
         <v>3405.310131965765</v>
       </c>
     </row>
     <row r="264" spans="1:4">
-      <c r="A264" s="1">
+      <c r="A264" s="1" t="n">
         <v>262</v>
       </c>
-      <c r="B264">
+      <c r="B264" t="n">
         <v>554.4409470566624</v>
       </c>
-      <c r="C264">
+      <c r="C264" t="n">
         <v>135.4210188071394</v>
       </c>
-      <c r="D264">
+      <c r="D264" t="n">
         <v>3402.402889088146</v>
       </c>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="1">
+      <c r="A265" s="1" t="n">
         <v>263</v>
       </c>
-      <c r="B265">
+      <c r="B265" t="n">
         <v>544.4683240856624</v>
       </c>
-      <c r="C265">
+      <c r="C265" t="n">
         <v>136.2220674065015</v>
       </c>
-      <c r="D265">
+      <c r="D265" t="n">
         <v>3392.950598836531</v>
       </c>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="1">
+      <c r="A266" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="B266">
+      <c r="B266" t="n">
         <v>533.1199333956999</v>
       </c>
-      <c r="C266">
+      <c r="C266" t="n">
         <v>137.2946398641258</v>
       </c>
-      <c r="D266">
+      <c r="D266" t="n">
         <v>3394.479057644807</v>
       </c>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="1">
+      <c r="A267" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="B267">
+      <c r="B267" t="n">
         <v>519.6349544429564</v>
       </c>
-      <c r="C267">
+      <c r="C267" t="n">
         <v>134.7916288555579</v>
       </c>
-      <c r="D267">
+      <c r="D267" t="n">
         <v>3404.704447232574</v>
       </c>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="1">
+      <c r="A268" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="B268">
+      <c r="B268" t="n">
         <v>513.6509055967902</v>
       </c>
-      <c r="C268">
+      <c r="C268" t="n">
         <v>134.0895499271274</v>
       </c>
-      <c r="D268">
+      <c r="D268" t="n">
         <v>3403.512326242892</v>
       </c>
     </row>
     <row r="269" spans="1:4">
-      <c r="A269" s="1">
+      <c r="A269" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="B269">
+      <c r="B269" t="n">
         <v>496.1671441862742</v>
       </c>
-      <c r="C269">
+      <c r="C269" t="n">
         <v>136.1405138450359</v>
       </c>
-      <c r="D269">
+      <c r="D269" t="n">
         <v>3411.046469957958</v>
       </c>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="1">
+      <c r="A270" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="B270">
+      <c r="B270" t="n">
         <v>488.0535838737958</v>
       </c>
-      <c r="C270">
+      <c r="C270" t="n">
         <v>132.2236958197872</v>
       </c>
-      <c r="D270">
+      <c r="D270" t="n">
         <v>3412.72722312148</v>
       </c>
     </row>
     <row r="271" spans="1:4">
-      <c r="A271" s="1">
+      <c r="A271" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="B271">
+      <c r="B271" t="n">
         <v>476.5514700428417</v>
       </c>
-      <c r="C271">
+      <c r="C271" t="n">
         <v>131.2020187386814</v>
       </c>
-      <c r="D271">
+      <c r="D271" t="n">
         <v>3412.269541125808</v>
       </c>
     </row>
     <row r="272" spans="1:4">
-      <c r="A272" s="1">
+      <c r="A272" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="B272">
+      <c r="B272" t="n">
         <v>467.9618282269883</v>
       </c>
-      <c r="C272">
+      <c r="C272" t="n">
         <v>130.7924391573742</v>
       </c>
-      <c r="D272">
+      <c r="D272" t="n">
         <v>3416.110149665588</v>
       </c>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="1">
+      <c r="A273" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="B273">
+      <c r="B273" t="n">
         <v>456.1552735943048</v>
       </c>
-      <c r="C273">
+      <c r="C273" t="n">
         <v>130.6144811288389</v>
       </c>
-      <c r="D273">
+      <c r="D273" t="n">
         <v>3415.162352738594</v>
       </c>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="1">
+      <c r="A274" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="B274">
+      <c r="B274" t="n">
         <v>451.0446927668016</v>
       </c>
-      <c r="C274">
+      <c r="C274" t="n">
         <v>130.8262334985155</v>
       </c>
-      <c r="D274">
+      <c r="D274" t="n">
         <v>3429.284189296979</v>
       </c>
     </row>
     <row r="275" spans="1:4">
-      <c r="A275" s="1">
+      <c r="A275" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="B275">
+      <c r="B275" t="n">
         <v>456.5118477737192</v>
       </c>
-      <c r="C275">
+      <c r="C275" t="n">
         <v>129.2140856599286</v>
       </c>
-      <c r="D275">
+      <c r="D275" t="n">
         <v>3435.734286111598</v>
       </c>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="1">
+      <c r="A276" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="B276">
+      <c r="B276" t="n">
         <v>454.9291544102145</v>
       </c>
-      <c r="C276">
+      <c r="C276" t="n">
         <v>129.7920727158613</v>
       </c>
-      <c r="D276">
+      <c r="D276" t="n">
         <v>3450.043388529475</v>
       </c>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="1">
+      <c r="A277" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="B277">
+      <c r="B277" t="n">
         <v>453.4376733924457</v>
       </c>
-      <c r="C277">
+      <c r="C277" t="n">
         <v>129.8284144918154</v>
       </c>
-      <c r="D277">
+      <c r="D277" t="n">
         <v>3484.161264334414</v>
       </c>
     </row>
     <row r="278" spans="1:4">
-      <c r="A278" s="1">
+      <c r="A278" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="B278">
+      <c r="B278" t="n">
         <v>447.5392085168761</v>
       </c>
-      <c r="C278">
+      <c r="C278" t="n">
         <v>128.1932168928118</v>
       </c>
-      <c r="D278">
+      <c r="D278" t="n">
         <v>3516.438377525674</v>
       </c>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="1">
+      <c r="A279" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="B279">
+      <c r="B279" t="n">
         <v>442.6337444777114</v>
       </c>
-      <c r="C279">
+      <c r="C279" t="n">
         <v>127.9708474432882</v>
       </c>
-      <c r="D279">
+      <c r="D279" t="n">
         <v>3532.974917195615</v>
       </c>
     </row>
     <row r="280" spans="1:4">
-      <c r="A280" s="1">
+      <c r="A280" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="B280">
+      <c r="B280" t="n">
         <v>432.6008864420999</v>
       </c>
-      <c r="C280">
+      <c r="C280" t="n">
         <v>126.6386665267763</v>
       </c>
-      <c r="D280">
+      <c r="D280" t="n">
         <v>3533.674139550182</v>
       </c>
     </row>
     <row r="281" spans="1:4">
-      <c r="A281" s="1">
+      <c r="A281" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="B281">
+      <c r="B281" t="n">
         <v>433.2949951474</v>
       </c>
-      <c r="C281">
+      <c r="C281" t="n">
         <v>125.6079352303966</v>
       </c>
-      <c r="D281">
+      <c r="D281" t="n">
         <v>3513.296330448136</v>
       </c>
     </row>
     <row r="282" spans="1:4">
-      <c r="A282" s="1">
+      <c r="A282" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="B282">
+      <c r="B282" t="n">
         <v>436.4012388888667</v>
       </c>
-      <c r="C282">
+      <c r="C282" t="n">
         <v>123.8536826582484</v>
       </c>
-      <c r="D282">
+      <c r="D282" t="n">
         <v>3501.624601460438</v>
       </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="1">
+      <c r="A283" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="B283">
+      <c r="B283" t="n">
         <v>440.8765198592666</v>
       </c>
-      <c r="C283">
+      <c r="C283" t="n">
         <v>121.751832121467</v>
       </c>
-      <c r="D283">
+      <c r="D283" t="n">
         <v>3520.706045311249</v>
       </c>
     </row>
     <row r="284" spans="1:4">
-      <c r="A284" s="1">
+      <c r="A284" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="B284">
+      <c r="B284" t="n">
         <v>448.1852279172458</v>
       </c>
-      <c r="C284">
+      <c r="C284" t="n">
         <v>118.2658981202176</v>
       </c>
-      <c r="D284">
+      <c r="D284" t="n">
         <v>3558.115411889856</v>
       </c>
     </row>
     <row r="285" spans="1:4">
-      <c r="A285" s="1">
+      <c r="A285" s="1" t="n">
         <v>283</v>
       </c>
-      <c r="B285">
+      <c r="B285" t="n">
         <v>450.7177435310592</v>
       </c>
-      <c r="C285">
+      <c r="C285" t="n">
         <v>115.8898199865658</v>
       </c>
-      <c r="D285">
+      <c r="D285" t="n">
         <v>3569.419379108729</v>
       </c>
     </row>
     <row r="286" spans="1:4">
-      <c r="A286" s="1">
+      <c r="A286" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="B286">
+      <c r="B286" t="n">
         <v>445.5887792566392</v>
       </c>
-      <c r="C286">
+      <c r="C286" t="n">
         <v>114.8981220511188</v>
       </c>
-      <c r="D286">
+      <c r="D286" t="n">
         <v>3578.352446991913</v>
       </c>
     </row>
     <row r="287" spans="1:4">
-      <c r="A287" s="1">
+      <c r="A287" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="B287">
+      <c r="B287" t="n">
         <v>455.2299128277726</v>
       </c>
-      <c r="C287">
+      <c r="C287" t="n">
         <v>111.8169565544346</v>
       </c>
-      <c r="D287">
+      <c r="D287" t="n">
         <v>3585.896196948616</v>
       </c>
     </row>
     <row r="288" spans="1:4">
-      <c r="A288" s="1">
+      <c r="A288" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="B288">
+      <c r="B288" t="n">
         <v>464.4566338044725</v>
       </c>
-      <c r="C288">
+      <c r="C288" t="n">
         <v>111.3619574990422</v>
       </c>
-      <c r="D288">
+      <c r="D288" t="n">
         <v>3604.209590468573</v>
       </c>
     </row>
     <row r="289" spans="1:4">
-      <c r="A289" s="1">
+      <c r="A289" s="1" t="n">
         <v>287</v>
       </c>
-      <c r="B289">
+      <c r="B289" t="n">
         <v>472.5444279937058</v>
       </c>
-      <c r="C289">
+      <c r="C289" t="n">
         <v>109.719823430646</v>
       </c>
-      <c r="D289">
+      <c r="D289" t="n">
         <v>3604.100804021904</v>
       </c>
     </row>
     <row r="290" spans="1:4">
-      <c r="A290" s="1">
+      <c r="A290" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="B290">
+      <c r="B290" t="n">
         <v>478.0903420197058</v>
       </c>
-      <c r="C290">
+      <c r="C290" t="n">
         <v>108.7664409925335</v>
       </c>
-      <c r="D290">
+      <c r="D290" t="n">
         <v>3619.76974363107</v>
       </c>
     </row>
     <row r="291" spans="1:4">
-      <c r="A291" s="1">
+      <c r="A291" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="B291">
+      <c r="B291" t="n">
         <v>487.5047217515725</v>
       </c>
-      <c r="C291">
+      <c r="C291" t="n">
         <v>104.6380782819856</v>
       </c>
-      <c r="D291">
+      <c r="D291" t="n">
         <v>3632.199003033634</v>
       </c>
     </row>
     <row r="292" spans="1:4">
-      <c r="A292" s="1">
+      <c r="A292" s="1" t="n">
         <v>290</v>
       </c>
-      <c r="B292">
+      <c r="B292" t="n">
         <v>494.0912041735392</v>
       </c>
-      <c r="C292">
+      <c r="C292" t="n">
         <v>103.0026274469726</v>
       </c>
-      <c r="D292">
+      <c r="D292" t="n">
         <v>3648.445513761208</v>
       </c>
     </row>
     <row r="293" spans="1:4">
-      <c r="A293" s="1">
+      <c r="A293" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="B293">
+      <c r="B293" t="n">
         <v>499.5056958055059</v>
       </c>
-      <c r="C293">
+      <c r="C293" t="n">
         <v>102.0584757487669</v>
       </c>
-      <c r="D293">
+      <c r="D293" t="n">
         <v>3652.103457814516</v>
       </c>
     </row>
     <row r="294" spans="1:4">
-      <c r="A294" s="1">
+      <c r="A294" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="B294">
+      <c r="B294" t="n">
         <v>511.5954121259725</v>
       </c>
-      <c r="C294">
+      <c r="C294" t="n">
         <v>99.82841694506851</v>
       </c>
-      <c r="D294">
+      <c r="D294" t="n">
         <v>3675.982785531055</v>
       </c>
     </row>
     <row r="295" spans="1:4">
-      <c r="A295" s="1">
+      <c r="A295" s="1" t="n">
         <v>293</v>
       </c>
-      <c r="B295">
+      <c r="B295" t="n">
         <v>513.9311132858726</v>
       </c>
-      <c r="C295">
+      <c r="C295" t="n">
         <v>98.58828732363934</v>
       </c>
-      <c r="D295">
+      <c r="D295" t="n">
         <v>3689.189353864275</v>
       </c>
     </row>
     <row r="296" spans="1:4">
-      <c r="A296" s="1">
+      <c r="A296" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="B296">
+      <c r="B296" t="n">
         <v>516.7213027199391</v>
       </c>
-      <c r="C296">
+      <c r="C296" t="n">
         <v>96.2483292661076</v>
       </c>
-      <c r="D296">
+      <c r="D296" t="n">
         <v>3698.432077364277</v>
       </c>
     </row>
     <row r="297" spans="1:4">
-      <c r="A297" s="1">
+      <c r="A297" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="B297">
+      <c r="B297" t="n">
         <v>519.7172413661724</v>
       </c>
-      <c r="C297">
+      <c r="C297" t="n">
         <v>94.08148186177874</v>
       </c>
-      <c r="D297">
+      <c r="D297" t="n">
         <v>3746.064330167543</v>
       </c>
     </row>
     <row r="298" spans="1:4">
-      <c r="A298" s="1">
+      <c r="A298" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="B298">
+      <c r="B298" t="n">
         <v>516.7892082824724</v>
       </c>
-      <c r="C298">
+      <c r="C298" t="n">
         <v>92.48199473227983</v>
       </c>
-      <c r="D298">
+      <c r="D298" t="n">
         <v>3810.086912024908</v>
       </c>
     </row>
     <row r="299" spans="1:4">
-      <c r="A299" s="1">
+      <c r="A299" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="B299">
+      <c r="B299" t="n">
         <v>519.4289704531211</v>
       </c>
-      <c r="C299">
+      <c r="C299" t="n">
         <v>90.02524379020844</v>
       </c>
-      <c r="D299">
+      <c r="D299" t="n">
         <v>3858.375663146483</v>
       </c>
     </row>
     <row r="300" spans="1:4">
-      <c r="A300" s="1">
+      <c r="A300" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="B300">
+      <c r="B300" t="n">
         <v>523.8381862821216</v>
       </c>
-      <c r="C300">
+      <c r="C300" t="n">
         <v>88.83847061754857</v>
       </c>
-      <c r="D300">
+      <c r="D300" t="n">
         <v>3921.527993906176</v>
       </c>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="1">
+      <c r="A301" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="B301">
+      <c r="B301" t="n">
         <v>527.5125287550703</v>
       </c>
-      <c r="C301">
+      <c r="C301" t="n">
         <v>85.58163344569833</v>
       </c>
-      <c r="D301">
+      <c r="D301" t="n">
         <v>3941.532588945247</v>
       </c>
     </row>
     <row r="302" spans="1:4">
-      <c r="A302" s="1">
+      <c r="A302" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="B302">
+      <c r="B302" t="n">
         <v>527.0320223492459</v>
       </c>
-      <c r="C302">
+      <c r="C302" t="n">
         <v>85.46729443383632</v>
       </c>
-      <c r="D302">
+      <c r="D302" t="n">
         <v>3951.337457629568</v>
       </c>
     </row>
     <row r="303" spans="1:4">
-      <c r="A303" s="1">
+      <c r="A303" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="B303">
+      <c r="B303" t="n">
         <v>531.9299961879834</v>
       </c>
-      <c r="C303">
+      <c r="C303" t="n">
         <v>84.65263270216997</v>
       </c>
-      <c r="D303">
+      <c r="D303" t="n">
         <v>3954.162656110834</v>
       </c>
     </row>
     <row r="304" spans="1:4">
-      <c r="A304" s="1">
+      <c r="A304" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="B304">
+      <c r="B304" t="n">
         <v>535.0847999188833</v>
       </c>
-      <c r="C304">
+      <c r="C304" t="n">
         <v>82.9404803576564</v>
       </c>
-      <c r="D304">
+      <c r="D304" t="n">
         <v>3967.350325645918</v>
       </c>
     </row>
     <row r="305" spans="1:4">
-      <c r="A305" s="1">
+      <c r="A305" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="B305">
+      <c r="B305" t="n">
         <v>531.0155665908388</v>
       </c>
-      <c r="C305">
+      <c r="C305" t="n">
         <v>82.27473461101266</v>
       </c>
-      <c r="D305">
+      <c r="D305" t="n">
         <v>3961.619510260804</v>
       </c>
     </row>
     <row r="306" spans="1:4">
-      <c r="A306" s="1">
+      <c r="A306" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="B306">
+      <c r="B306" t="n">
         <v>536.5433526733054</v>
       </c>
-      <c r="C306">
+      <c r="C306" t="n">
         <v>81.03107631708967</v>
       </c>
-      <c r="D306">
+      <c r="D306" t="n">
         <v>3973.751876580674</v>
       </c>
     </row>
     <row r="307" spans="1:4">
-      <c r="A307" s="1">
+      <c r="A307" s="1" t="n">
         <v>305</v>
       </c>
-      <c r="B307">
+      <c r="B307" t="n">
         <v>540.7871342787797</v>
       </c>
-      <c r="C307">
+      <c r="C307" t="n">
         <v>78.97125927577915</v>
       </c>
-      <c r="D307">
+      <c r="D307" t="n">
         <v>3997.241386418953</v>
       </c>
     </row>
     <row r="308" spans="1:4">
-      <c r="A308" s="1">
+      <c r="A308" s="1" t="n">
         <v>306</v>
       </c>
-      <c r="B308">
+      <c r="B308" t="n">
         <v>541.0345888671344</v>
       </c>
-      <c r="C308">
+      <c r="C308" t="n">
         <v>79.2784002738247</v>
       </c>
-      <c r="D308">
+      <c r="D308" t="n">
         <v>4026.906289886495</v>
       </c>
     </row>
     <row r="309" spans="1:4">
-      <c r="A309" s="1">
+      <c r="A309" s="1" t="n">
         <v>307</v>
       </c>
-      <c r="B309">
+      <c r="B309" t="n">
         <v>540.7394590742852</v>
       </c>
-      <c r="C309">
+      <c r="C309" t="n">
         <v>79.18055576950971</v>
       </c>
-      <c r="D309">
+      <c r="D309" t="n">
         <v>4065.990398585886</v>
       </c>
     </row>
     <row r="310" spans="1:4">
-      <c r="A310" s="1">
+      <c r="A310" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="B310">
+      <c r="B310" t="n">
         <v>535.76492700756</v>
       </c>
-      <c r="C310">
+      <c r="C310" t="n">
         <v>78.05227679729063</v>
       </c>
-      <c r="D310">
+      <c r="D310" t="n">
         <v>4089.699406796452</v>
       </c>
     </row>
     <row r="311" spans="1:4">
-      <c r="A311" s="1">
+      <c r="A311" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="B311">
+      <c r="B311" t="n">
         <v>534.6299514701325</v>
       </c>
-      <c r="C311">
+      <c r="C311" t="n">
         <v>77.16712641644085</v>
       </c>
-      <c r="D311">
+      <c r="D311" t="n">
         <v>4140.945590055555</v>
       </c>
     </row>
     <row r="312" spans="1:4">
-      <c r="A312" s="1">
+      <c r="A312" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="B312">
+      <c r="B312" t="n">
         <v>526.2434960904071</v>
       </c>
-      <c r="C312">
+      <c r="C312" t="n">
         <v>75.68950013292076</v>
       </c>
-      <c r="D312">
+      <c r="D312" t="n">
         <v>4195.707292629657</v>
       </c>
     </row>
     <row r="313" spans="1:4">
-      <c r="A313" s="1">
+      <c r="A313" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="B313">
+      <c r="B313" t="n">
         <v>533.0692216846676</v>
       </c>
-      <c r="C313">
+      <c r="C313" t="n">
         <v>75.04926442679174</v>
       </c>
-      <c r="D313">
+      <c r="D313" t="n">
         <v>4257.085225779477</v>
       </c>
     </row>
     <row r="314" spans="1:4">
-      <c r="A314" s="1">
+      <c r="A314" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="B314">
+      <c r="B314" t="n">
         <v>526.6713524700876</v>
       </c>
-      <c r="C314">
+      <c r="C314" t="n">
         <v>76.97968175389187</v>
       </c>
-      <c r="D314">
+      <c r="D314" t="n">
         <v>4278.002910113884</v>
       </c>
     </row>
     <row r="315" spans="1:4">
-      <c r="A315" s="1">
+      <c r="A315" s="1" t="n">
         <v>313</v>
       </c>
-      <c r="B315">
+      <c r="B315" t="n">
         <v>527.7687131007409</v>
       </c>
-      <c r="C315">
+      <c r="C315" t="n">
         <v>77.77623940846294</v>
       </c>
-      <c r="D315">
+      <c r="D315" t="n">
         <v>4341.022314652361</v>
       </c>
     </row>
     <row r="316" spans="1:4">
-      <c r="A316" s="1">
+      <c r="A316" s="1" t="n">
         <v>314</v>
       </c>
-      <c r="B316">
+      <c r="B316" t="n">
         <v>530.9302973255942</v>
       </c>
-      <c r="C316">
+      <c r="C316" t="n">
         <v>77.93444514939887</v>
       </c>
-      <c r="D316">
+      <c r="D316" t="n">
         <v>4409.453910986909</v>
       </c>
     </row>
     <row r="317" spans="1:4">
-      <c r="A317" s="1">
+      <c r="A317" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="B317">
+      <c r="B317" t="n">
         <v>525.5983866525609</v>
       </c>
-      <c r="C317">
+      <c r="C317" t="n">
         <v>78.43065894795141</v>
       </c>
-      <c r="D317">
+      <c r="D317" t="n">
         <v>4475.592993266061</v>
       </c>
     </row>
     <row r="318" spans="1:4">
-      <c r="A318" s="1">
+      <c r="A318" s="1" t="n">
         <v>316</v>
       </c>
-      <c r="B318">
+      <c r="B318" t="n">
         <v>520.3744044081941</v>
       </c>
-      <c r="C318">
+      <c r="C318" t="n">
         <v>78.52067137045472</v>
       </c>
-      <c r="D318">
+      <c r="D318" t="n">
         <v>4570.314210614528</v>
       </c>
     </row>
     <row r="319" spans="1:4">
-      <c r="A319" s="1">
+      <c r="A319" s="1" t="n">
         <v>317</v>
       </c>
-      <c r="B319">
+      <c r="B319" t="n">
         <v>514.8991652006941</v>
       </c>
-      <c r="C319">
+      <c r="C319" t="n">
         <v>80.42788994639704</v>
       </c>
-      <c r="D319">
+      <c r="D319" t="n">
         <v>4685.517067106121</v>
       </c>
     </row>
     <row r="320" spans="1:4">
-      <c r="A320" s="1">
+      <c r="A320" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="B320">
+      <c r="B320" t="n">
         <v>516.3958577334635</v>
       </c>
-      <c r="C320">
+      <c r="C320" t="n">
         <v>81.92090392287882</v>
       </c>
-      <c r="D320">
+      <c r="D320" t="n">
         <v>4775.812231470261</v>
       </c>
     </row>
     <row r="321" spans="1:4">
-      <c r="A321" s="1">
+      <c r="A321" s="1" t="n">
         <v>319</v>
       </c>
-      <c r="B321">
+      <c r="B321" t="n">
         <v>521.8835402926967</v>
       </c>
-      <c r="C321">
+      <c r="C321" t="n">
         <v>83.41115394549317</v>
       </c>
-      <c r="D321">
+      <c r="D321" t="n">
         <v>4843.346365828756</v>
       </c>
     </row>
     <row r="322" spans="1:4">
-      <c r="A322" s="1">
+      <c r="A322" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="B322">
+      <c r="B322" t="n">
         <v>519.5371130923445</v>
       </c>
-      <c r="C322">
+      <c r="C322" t="n">
         <v>83.91726912036962</v>
       </c>
-      <c r="D322">
+      <c r="D322" t="n">
         <v>4907.838009821405</v>
       </c>
     </row>
     <row r="323" spans="1:4">
-      <c r="A323" s="1">
+      <c r="A323" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="B323">
+      <c r="B323" t="n">
         <v>525.3284984020039</v>
       </c>
-      <c r="C323">
+      <c r="C323" t="n">
         <v>83.57586592338629</v>
       </c>
-      <c r="D323">
+      <c r="D323" t="n">
         <v>4963.360792144264</v>
       </c>
     </row>
     <row r="324" spans="1:4">
-      <c r="A324" s="1">
+      <c r="A324" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="B324">
+      <c r="B324" t="n">
         <v>527.2525929309039</v>
       </c>
-      <c r="C324">
+      <c r="C324" t="n">
         <v>85.39398651921735</v>
       </c>
-      <c r="D324">
+      <c r="D324" t="n">
         <v>5010.811737902786</v>
       </c>
     </row>
     <row r="325" spans="1:4">
-      <c r="A325" s="1">
+      <c r="A325" s="1" t="n">
         <v>323</v>
       </c>
-      <c r="B325">
+      <c r="B325" t="n">
         <v>535.5103098701396</v>
       </c>
-      <c r="C325">
+      <c r="C325" t="n">
         <v>85.83451067381405</v>
       </c>
-      <c r="D325">
+      <c r="D325" t="n">
         <v>5100.985498891871</v>
       </c>
     </row>
     <row r="326" spans="1:4">
-      <c r="A326" s="1">
+      <c r="A326" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="B326">
+      <c r="B326" t="n">
         <v>543.7019416073397</v>
       </c>
-      <c r="C326">
+      <c r="C326" t="n">
         <v>86.90279839069034</v>
       </c>
-      <c r="D326">
+      <c r="D326" t="n">
         <v>5170.078767727701</v>
       </c>
     </row>
     <row r="327" spans="1:4">
-      <c r="A327" s="1">
+      <c r="A327" s="1" t="n">
         <v>325</v>
       </c>
-      <c r="B327">
+      <c r="B327" t="n">
         <v>545.794746722173</v>
       </c>
-      <c r="C327">
+      <c r="C327" t="n">
         <v>89.26524468027515</v>
       </c>
-      <c r="D327">
+      <c r="D327" t="n">
         <v>5200.152725027804</v>
       </c>
     </row>
     <row r="328" spans="1:4">
-      <c r="A328" s="1">
+      <c r="A328" s="1" t="n">
         <v>326</v>
       </c>
-      <c r="B328">
+      <c r="B328" t="n">
         <v>555.4772346232063</v>
       </c>
-      <c r="C328">
+      <c r="C328" t="n">
         <v>91.13144803749812</v>
       </c>
-      <c r="D328">
+      <c r="D328" t="n">
         <v>5217.151410902749</v>
       </c>
     </row>
     <row r="329" spans="1:4">
-      <c r="A329" s="1">
+      <c r="A329" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="B329">
+      <c r="B329" t="n">
         <v>564.6897207762354</v>
       </c>
-      <c r="C329">
+      <c r="C329" t="n">
         <v>91.54300254768188</v>
       </c>
-      <c r="D329">
+      <c r="D329" t="n">
         <v>5248.647640321386</v>
       </c>
     </row>
     <row r="330" spans="1:4">
-      <c r="A330" s="1">
+      <c r="A330" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="B330">
+      <c r="B330" t="n">
         <v>569.1901883627894</v>
       </c>
-      <c r="C330">
+      <c r="C330" t="n">
         <v>93.31783915439236</v>
       </c>
-      <c r="D330">
+      <c r="D330" t="n">
         <v>5251.583839608953</v>
       </c>
     </row>
     <row r="331" spans="1:4">
-      <c r="A331" s="1">
+      <c r="A331" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="B331">
+      <c r="B331" t="n">
         <v>578.2049435433128</v>
       </c>
-      <c r="C331">
+      <c r="C331" t="n">
         <v>94.65905977188261</v>
       </c>
-      <c r="D331">
+      <c r="D331" t="n">
         <v>5295.073074778853</v>
       </c>
     </row>
     <row r="332" spans="1:4">
-      <c r="A332" s="1">
+      <c r="A332" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="B332">
+      <c r="B332" t="n">
         <v>589.0593008118742</v>
       </c>
-      <c r="C332">
+      <c r="C332" t="n">
         <v>93.75317837453625</v>
       </c>
-      <c r="D332">
+      <c r="D332" t="n">
         <v>5369.098551716834</v>
       </c>
     </row>
     <row r="333" spans="1:4">
-      <c r="A333" s="1">
+      <c r="A333" s="1" t="n">
         <v>331</v>
       </c>
-      <c r="B333">
+      <c r="B333" t="n">
         <v>597.5880402787766</v>
       </c>
-      <c r="C333">
+      <c r="C333" t="n">
         <v>93.18498499361948</v>
       </c>
-      <c r="D333">
+      <c r="D333" t="n">
         <v>5437.830309482832</v>
       </c>
     </row>
     <row r="334" spans="1:4">
-      <c r="A334" s="1">
+      <c r="A334" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="B334">
+      <c r="B334" t="n">
         <v>604.9815726683686</v>
       </c>
-      <c r="C334">
+      <c r="C334" t="n">
         <v>93.25171444408191</v>
       </c>
-      <c r="D334">
+      <c r="D334" t="n">
         <v>5497.931418661537</v>
       </c>
     </row>
     <row r="335" spans="1:4">
-      <c r="A335" s="1">
+      <c r="A335" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="B335">
+      <c r="B335" t="n">
         <v>616.7706153505133</v>
       </c>
-      <c r="C335">
+      <c r="C335" t="n">
         <v>93.00806873296385</v>
       </c>
-      <c r="D335">
+      <c r="D335" t="n">
         <v>5555.567612630259</v>
       </c>
     </row>
     <row r="336" spans="1:4">
-      <c r="A336" s="1">
+      <c r="A336" s="1" t="n">
         <v>334</v>
       </c>
-      <c r="B336">
+      <c r="B336" t="n">
         <v>621.0233629241629</v>
       </c>
-      <c r="C336">
+      <c r="C336" t="n">
         <v>93.69380746580893</v>
       </c>
-      <c r="D336">
+      <c r="D336" t="n">
         <v>5620.320717925391</v>
       </c>
     </row>
     <row r="337" spans="1:4">
-      <c r="A337" s="1">
+      <c r="A337" s="1" t="n">
         <v>335</v>
       </c>
-      <c r="B337">
+      <c r="B337" t="n">
         <v>623.2117745970149</v>
       </c>
-      <c r="C337">
+      <c r="C337" t="n">
         <v>94.47114638898343</v>
       </c>
-      <c r="D337">
+      <c r="D337" t="n">
         <v>5654.393241588236</v>
       </c>
     </row>
     <row r="338" spans="1:4">
-      <c r="A338" s="1">
+      <c r="A338" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="B338">
+      <c r="B338" t="n">
         <v>631.9731090267834</v>
       </c>
-      <c r="C338">
+      <c r="C338" t="n">
         <v>93.30498387985511</v>
       </c>
-      <c r="D338">
+      <c r="D338" t="n">
         <v>5657.57030209709</v>
       </c>
     </row>
     <row r="339" spans="1:4">
-      <c r="A339" s="1">
+      <c r="A339" s="1" t="n">
         <v>337</v>
       </c>
-      <c r="B339">
+      <c r="B339" t="n">
         <v>644.6552576326993</v>
       </c>
-      <c r="C339">
+      <c r="C339" t="n">
         <v>92.40375946813128</v>
       </c>
-      <c r="D339">
+      <c r="D339" t="n">
         <v>5700.121248019501</v>
       </c>
     </row>
     <row r="340" spans="1:4">
-      <c r="A340" s="1">
+      <c r="A340" s="1" t="n">
         <v>338</v>
       </c>
-      <c r="B340">
+      <c r="B340" t="n">
         <v>659.8136997652912</v>
       </c>
-      <c r="C340">
+      <c r="C340" t="n">
         <v>93.91289961319356</v>
       </c>
-      <c r="D340">
+      <c r="D340" t="n">
         <v>5749.791374410076</v>
       </c>
     </row>
     <row r="341" spans="1:4">
-      <c r="A341" s="1">
+      <c r="A341" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="B341">
+      <c r="B341" t="n">
         <v>673.9961759522853</v>
       </c>
-      <c r="C341">
+      <c r="C341" t="n">
         <v>94.95352442012069</v>
       </c>
-      <c r="D341">
+      <c r="D341" t="n">
         <v>5767.370133123636</v>
       </c>
     </row>
     <row r="342" spans="1:4">
-      <c r="A342" s="1">
+      <c r="A342" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="B342">
+      <c r="B342" t="n">
         <v>693.2375091691106</v>
       </c>
-      <c r="C342">
+      <c r="C342" t="n">
         <v>96.63779326990276</v>
       </c>
-      <c r="D342">
+      <c r="D342" t="n">
         <v>5800.212585882964</v>
       </c>
     </row>
     <row r="343" spans="1:4">
-      <c r="A343" s="1">
+      <c r="A343" s="1" t="n">
         <v>341</v>
       </c>
-      <c r="B343">
+      <c r="B343" t="n">
         <v>696.0781606061502</v>
       </c>
-      <c r="C343">
+      <c r="C343" t="n">
         <v>97.75256391046702</v>
       </c>
-      <c r="D343">
+      <c r="D343" t="n">
         <v>5806.154744087259</v>
       </c>
     </row>
     <row r="344" spans="1:4">
-      <c r="A344" s="1">
+      <c r="A344" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="B344">
+      <c r="B344" t="n">
         <v>708.3501265222511</v>
       </c>
-      <c r="C344">
+      <c r="C344" t="n">
         <v>97.38178633291348</v>
       </c>
-      <c r="D344">
+      <c r="D344" t="n">
         <v>5825.891627119903</v>
       </c>
     </row>
     <row r="345" spans="1:4">
-      <c r="A345" s="1">
+      <c r="A345" s="1" t="n">
         <v>343</v>
       </c>
-      <c r="B345">
+      <c r="B345" t="n">
         <v>720.7174422143843</v>
       </c>
-      <c r="C345">
+      <c r="C345" t="n">
         <v>97.08967314159527</v>
       </c>
-      <c r="D345">
+      <c r="D345" t="n">
         <v>5836.95709612073</v>
       </c>
     </row>
     <row r="346" spans="1:4">
-      <c r="A346" s="1">
+      <c r="A346" s="1" t="n">
         <v>344</v>
       </c>
-      <c r="B346">
+      <c r="B346" t="n">
         <v>719.0780295572512</v>
       </c>
-      <c r="C346">
+      <c r="C346" t="n">
         <v>98.62441343540526</v>
       </c>
-      <c r="D346">
+      <c r="D346" t="n">
         <v>5837.187036236714</v>
       </c>
     </row>
     <row r="347" spans="1:4">
-      <c r="A347" s="1">
+      <c r="A347" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="B347">
+      <c r="B347" t="n">
         <v>718.979629676651</v>
       </c>
-      <c r="C347">
+      <c r="C347" t="n">
         <v>98.42209829241612</v>
       </c>
-      <c r="D347">
+      <c r="D347" t="n">
         <v>5839.050918609942</v>
       </c>
     </row>
     <row r="348" spans="1:4">
-      <c r="A348" s="1">
+      <c r="A348" s="1" t="n">
         <v>346</v>
       </c>
-      <c r="B348">
+      <c r="B348" t="n">
         <v>718.1054300178844</v>
       </c>
-      <c r="C348">
+      <c r="C348" t="n">
         <v>98.15863446298162</v>
       </c>
-      <c r="D348">
+      <c r="D348" t="n">
         <v>5829.118114411388</v>
       </c>
     </row>
     <row r="349" spans="1:4">
-      <c r="A349" s="1">
+      <c r="A349" s="1" t="n">
         <v>347</v>
       </c>
-      <c r="B349">
+      <c r="B349" t="n">
         <v>722.065515589951</v>
       </c>
-      <c r="C349">
+      <c r="C349" t="n">
         <v>98.45854394062667</v>
       </c>
-      <c r="D349">
+      <c r="D349" t="n">
         <v>5796.790443988048</v>
       </c>
     </row>
     <row r="350" spans="1:4">
-      <c r="A350" s="1">
+      <c r="A350" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="B350">
+      <c r="B350" t="n">
         <v>720.8155826619152</v>
       </c>
-      <c r="C350">
+      <c r="C350" t="n">
         <v>99.36208558705809</v>
       </c>
-      <c r="D350">
+      <c r="D350" t="n">
         <v>5784.672189004365</v>
       </c>
     </row>
     <row r="351" spans="1:4">
-      <c r="A351" s="1">
+      <c r="A351" s="1" t="n">
         <v>349</v>
       </c>
-      <c r="B351">
+      <c r="B351" t="n">
         <v>713.0737985826819</v>
       </c>
-      <c r="C351">
+      <c r="C351" t="n">
         <v>101.5733506552724</v>
       </c>
-      <c r="D351">
+      <c r="D351" t="n">
         <v>5794.578348367188</v>
       </c>
     </row>
     <row r="352" spans="1:4">
-      <c r="A352" s="1">
+      <c r="A352" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="B352">
+      <c r="B352" t="n">
         <v>713.0737985826819</v>
       </c>
-      <c r="C352">
+      <c r="C352" t="n">
         <v>101.5733506552724</v>
       </c>
-      <c r="D352">
+      <c r="D352" t="n">
         <v>5794.578348367188</v>
       </c>
     </row>
     <row r="353" spans="1:4">
-      <c r="A353" s="1">
+      <c r="A353" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="B353">
+      <c r="B353" t="n">
         <v>713.0737985826819</v>
       </c>
-      <c r="C353">
+      <c r="C353" t="n">
         <v>101.5733506552724</v>
       </c>
-      <c r="D353">
+      <c r="D353" t="n">
         <v>5794.578348367188</v>
       </c>
     </row>
     <row r="354" spans="1:4">
-      <c r="A354" s="1">
+      <c r="A354" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="B354">
+      <c r="B354" t="n">
         <v>713.0737985826819</v>
       </c>
-      <c r="C354">
+      <c r="C354" t="n">
         <v>101.5733506552724</v>
       </c>
-      <c r="D354">
+      <c r="D354" t="n">
         <v>5794.578348367188</v>
       </c>
     </row>
     <row r="355" spans="1:4">
-      <c r="A355" s="1">
+      <c r="A355" s="1" t="n">
         <v>353</v>
       </c>
-      <c r="B355">
+      <c r="B355" t="n">
         <v>713.0737985826819</v>
       </c>
-      <c r="C355">
+      <c r="C355" t="n">
         <v>101.5733506552724</v>
       </c>
-      <c r="D355">
+      <c r="D355" t="n">
         <v>5794.578348367188</v>
       </c>
     </row>
     <row r="356" spans="1:4">
-      <c r="A356" s="1">
+      <c r="A356" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="B356">
+      <c r="B356" t="n">
         <v>713.0737985826819</v>
       </c>
-      <c r="C356">
+      <c r="C356" t="n">
         <v>101.5733506552724</v>
       </c>
-      <c r="D356">
+      <c r="D356" t="n">
         <v>5794.578348367188</v>
       </c>
     </row>
     <row r="357" spans="1:4">
-      <c r="A357" s="1">
+      <c r="A357" s="1" t="n">
         <v>355</v>
       </c>
-      <c r="B357">
+      <c r="B357" t="n">
         <v>713.0737985826819</v>
       </c>
-      <c r="C357">
+      <c r="C357" t="n">
         <v>101.5733506552724</v>
       </c>
-      <c r="D357">
+      <c r="D357" t="n">
         <v>5794.578348367188</v>
       </c>
     </row>
     <row r="358" spans="1:4">
-      <c r="A358" s="1">
+      <c r="A358" s="1" t="n">
         <v>356</v>
       </c>
-      <c r="B358">
+      <c r="B358" t="n">
         <v>713.0737985826819</v>
       </c>
-      <c r="C358">
+      <c r="C358" t="n">
         <v>101.5733506552724</v>
       </c>
-      <c r="D358">
+      <c r="D358" t="n">
         <v>5794.578348367188</v>
       </c>
     </row>
     <row r="359" spans="1:4">
-      <c r="A359" s="1">
+      <c r="A359" s="1" t="n">
         <v>357</v>
       </c>
-      <c r="B359">
+      <c r="B359" t="n">
         <v>713.0737985826819</v>
       </c>
-      <c r="C359">
+      <c r="C359" t="n">
         <v>101.5733506552724</v>
       </c>
-      <c r="D359">
+      <c r="D359" t="n">
         <v>5794.578348367188</v>
       </c>
     </row>
     <row r="360" spans="1:4">
-      <c r="A360" s="1">
+      <c r="A360" s="1" t="n">
         <v>358</v>
       </c>
-      <c r="B360">
+      <c r="B360" t="n">
         <v>713.0737985826819</v>
       </c>
-      <c r="C360">
+      <c r="C360" t="n">
         <v>101.5733506552724</v>
       </c>
-      <c r="D360">
+      <c r="D360" t="n">
         <v>5794.578348367188</v>
       </c>
     </row>
     <row r="361" spans="1:4">
-      <c r="A361" s="1">
+      <c r="A361" s="1" t="n">
         <v>359</v>
       </c>
-      <c r="B361">
+      <c r="B361" t="n">
         <v>713.0737985826819</v>
       </c>
-      <c r="C361">
+      <c r="C361" t="n">
         <v>101.5733506552724</v>
       </c>
-      <c r="D361">
+      <c r="D361" t="n">
         <v>5794.578348367188</v>
       </c>
     </row>
     <row r="362" spans="1:4">
-      <c r="A362" s="1">
+      <c r="A362" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="B362">
+      <c r="B362" t="n">
         <v>713.0737985826819</v>
       </c>
-      <c r="C362">
+      <c r="C362" t="n">
         <v>101.5733506552724</v>
       </c>
-      <c r="D362">
+      <c r="D362" t="n">
         <v>5794.578348367188</v>
       </c>
     </row>
     <row r="363" spans="1:4">
-      <c r="A363" s="1">
+      <c r="A363" s="1" t="n">
         <v>361</v>
       </c>
-      <c r="B363">
+      <c r="B363" t="n">
         <v>713.0737985826819</v>
       </c>
-      <c r="C363">
+      <c r="C363" t="n">
         <v>101.5733506552724</v>
       </c>
-      <c r="D363">
+      <c r="D363" t="n">
         <v>5794.578348367188</v>
       </c>
     </row>
     <row r="364" spans="1:4">
-      <c r="A364" s="1">
+      <c r="A364" s="1" t="n">
         <v>362</v>
       </c>
-      <c r="B364">
+      <c r="B364" t="n">
         <v>713.0737985826819</v>
       </c>
-      <c r="C364">
+      <c r="C364" t="n">
         <v>101.5733506552724</v>
       </c>
-      <c r="D364">
+      <c r="D364" t="n">
         <v>5794.578348367188</v>
       </c>
     </row>
     <row r="365" spans="1:4">
-      <c r="A365" s="1">
+      <c r="A365" s="1" t="n">
         <v>363</v>
       </c>
-      <c r="B365">
+      <c r="B365" t="n">
         <v>713.0737985826819</v>
       </c>
-      <c r="C365">
+      <c r="C365" t="n">
         <v>101.5733506552724</v>
       </c>
-      <c r="D365">
+      <c r="D365" t="n">
         <v>5794.578348367188</v>
       </c>
     </row>
     <row r="366" spans="1:4">
-      <c r="A366" s="1">
+      <c r="A366" s="1" t="n">
         <v>364</v>
       </c>
-      <c r="B366">
+      <c r="B366" t="n">
         <v>713.0737985826819</v>
       </c>
-      <c r="C366">
+      <c r="C366" t="n">
         <v>101.5733506552724</v>
       </c>
-      <c r="D366">
+      <c r="D366" t="n">
         <v>5794.578348367188</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>